--- a/classes.xlsx
+++ b/classes.xlsx
@@ -19528,3264 +19528,3264 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>Leopards</t>
+          <t>diamondback</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>a photo of Leopards</t>
+          <t>a photo of diamondback</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>diamondback</t>
+          <t>steam locomotive</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>a photo of diamondback</t>
+          <t>a photo of steam locomotive</t>
         </is>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>steam locomotive</t>
+          <t>bowl</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>a photo of steam locomotive</t>
+          <t>a photo of bowl</t>
         </is>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>bowl</t>
+          <t>rooster</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>a photo of bowl</t>
+          <t>a photo of rooster</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>rooster</t>
+          <t>snoopy</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>a photo of rooster</t>
+          <t>a photo of snoopy</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>snoopy</t>
+          <t>partridge</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>a photo of snoopy</t>
+          <t>a photo of partridge</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>partridge</t>
+          <t>cairn</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>a photo of partridge</t>
+          <t>a photo of cairn</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>cairn</t>
+          <t>minibus</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>a photo of cairn</t>
+          <t>a photo of minibus</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>minibus</t>
+          <t>head cabbage</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>a photo of minibus</t>
+          <t>a photo of head cabbage</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>head cabbage</t>
+          <t>golden retriever</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>a photo of head cabbage</t>
+          <t>a photo of golden retriever</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>golden retriever</t>
+          <t>hen-of-the-woods</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>a photo of golden retriever</t>
+          <t>a photo of hen-of-the-woods</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>hen-of-the-woods</t>
+          <t>crash helmet</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>a photo of hen-of-the-woods</t>
+          <t>a photo of crash helmet</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>crash helmet</t>
+          <t>english foxhound</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>a photo of crash helmet</t>
+          <t>a photo of english foxhound</t>
         </is>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>english foxhound</t>
+          <t>worm fence</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>a photo of english foxhound</t>
+          <t>a photo of worm fence</t>
         </is>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>worm fence</t>
+          <t>pickup</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>a photo of worm fence</t>
+          <t>a photo of pickup</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>pickup</t>
+          <t>bouvier des flandres</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>a photo of pickup</t>
+          <t>a photo of bouvier des flandres</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>bouvier des flandres</t>
+          <t>sleeping bag</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>a photo of bouvier des flandres</t>
+          <t>a photo of sleeping bag</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>sleeping bag</t>
+          <t>cab</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>a photo of sleeping bag</t>
+          <t>a photo of cab</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>cab</t>
+          <t>orangutan</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>a photo of cab</t>
+          <t>a photo of orangutan</t>
         </is>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>orangutan</t>
+          <t>bubble</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>a photo of orangutan</t>
+          <t>a photo of bubble</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>bubble</t>
+          <t>cheetah</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>a photo of bubble</t>
+          <t>a photo of cheetah</t>
         </is>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>cheetah</t>
+          <t>paddle</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>a photo of cheetah</t>
+          <t>a photo of paddle</t>
         </is>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>paddle</t>
+          <t>face powder</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>a photo of paddle</t>
+          <t>a photo of face powder</t>
         </is>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>face powder</t>
+          <t>shovel</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>a photo of face powder</t>
+          <t>a photo of shovel</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>shovel</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>a photo of shovel</t>
+          <t>a photo of menu</t>
         </is>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>pole</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>a photo of menu</t>
+          <t>a photo of pole</t>
         </is>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>pole</t>
+          <t>loupe</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>a photo of pole</t>
+          <t>a photo of loupe</t>
         </is>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>loupe</t>
+          <t>dishrag</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>a photo of loupe</t>
+          <t>a photo of dishrag</t>
         </is>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>dishrag</t>
+          <t>drumstick</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>a photo of dishrag</t>
+          <t>a photo of drumstick</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>drumstick</t>
+          <t>african chameleon</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>a photo of drumstick</t>
+          <t>a photo of african chameleon</t>
         </is>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>african chameleon</t>
+          <t>garter snake</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>a photo of african chameleon</t>
+          <t>a photo of garter snake</t>
         </is>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>garter snake</t>
+          <t>dutch oven</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>a photo of garter snake</t>
+          <t>a photo of dutch oven</t>
         </is>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>dutch oven</t>
+          <t>notebook</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>a photo of dutch oven</t>
+          <t>a photo of notebook</t>
         </is>
       </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>notebook</t>
+          <t>ketch</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>a photo of notebook</t>
+          <t>a photo of ketch</t>
         </is>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>ketch</t>
+          <t>scabbard</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>a photo of ketch</t>
+          <t>a photo of scabbard</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>scabbard</t>
+          <t>airship</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>a photo of scabbard</t>
+          <t>a photo of airship</t>
         </is>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>airship</t>
+          <t>mousetrap</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>a photo of airship</t>
+          <t>a photo of mousetrap</t>
         </is>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>mousetrap</t>
+          <t>espresso maker</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>a photo of mousetrap</t>
+          <t>a photo of espresso maker</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>espresso maker</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>a photo of espresso maker</t>
+          <t>a photo of bicycle</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>apron</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>a photo of bicycle</t>
+          <t>a photo of apron</t>
         </is>
       </c>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>apron</t>
+          <t>hermit crab</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>a photo of apron</t>
+          <t>a photo of hermit crab</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>hermit crab</t>
+          <t>giraffe</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>a photo of hermit crab</t>
+          <t>a photo of giraffe</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>giraffe</t>
+          <t>bee eater</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>a photo of giraffe</t>
+          <t>a photo of bee eater</t>
         </is>
       </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>bee eater</t>
+          <t>grand piano</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>a photo of bee eater</t>
+          <t>a photo of grand piano</t>
         </is>
       </c>
     </row>
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>grand piano</t>
+          <t>emu</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>a photo of grand piano</t>
+          <t>a photo of emu</t>
         </is>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>emu</t>
+          <t>prairie chicken</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>a photo of emu</t>
+          <t>a photo of prairie chicken</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>prairie chicken</t>
+          <t>crocodile</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>a photo of prairie chicken</t>
+          <t>a photo of crocodile</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>crocodile</t>
+          <t>oystercatcher</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>a photo of crocodile</t>
+          <t>a photo of oystercatcher</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>oystercatcher</t>
+          <t>mailbox</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>a photo of oystercatcher</t>
+          <t>a photo of mailbox</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>mailbox</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
         <is>
-          <t>a photo of mailbox</t>
+          <t>a photo of truck</t>
         </is>
       </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>sealyham terrier</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>a photo of truck</t>
+          <t>a photo of sealyham terrier</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>sealyham terrier</t>
+          <t>sea lion</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>a photo of sealyham terrier</t>
+          <t>a photo of sea lion</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>sea lion</t>
+          <t>keeshond</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>a photo of sea lion</t>
+          <t>a photo of keeshond</t>
         </is>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>keeshond</t>
+          <t>apiary</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>a photo of keeshond</t>
+          <t>a photo of apiary</t>
         </is>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>apiary</t>
+          <t>monastery</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>a photo of apiary</t>
+          <t>a photo of monastery</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>monastery</t>
+          <t>vulture</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>a photo of monastery</t>
+          <t>a photo of vulture</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>vulture</t>
+          <t>goblet</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>a photo of vulture</t>
+          <t>a photo of goblet</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>goblet</t>
+          <t>washbasin</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>a photo of goblet</t>
+          <t>a photo of washbasin</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>washbasin</t>
+          <t>mountain bike</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>a photo of washbasin</t>
+          <t>a photo of mountain bike</t>
         </is>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>mountain bike</t>
+          <t>mexican hairless</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>a photo of mountain bike</t>
+          <t>a photo of mexican hairless</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>mexican hairless</t>
+          <t>refrigerator</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>a photo of mexican hairless</t>
+          <t>a photo of refrigerator</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>refrigerator</t>
+          <t>wallaby</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>a photo of refrigerator</t>
+          <t>a photo of wallaby</t>
         </is>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>wallaby</t>
+          <t>spindle</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>a photo of wallaby</t>
+          <t>a photo of spindle</t>
         </is>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>spindle</t>
+          <t>red wine</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>a photo of spindle</t>
+          <t>a photo of red wine</t>
         </is>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>red wine</t>
+          <t>siamese cat</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>a photo of red wine</t>
+          <t>a photo of siamese cat</t>
         </is>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>siamese cat</t>
+          <t>wrench</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>a photo of siamese cat</t>
+          <t>a photo of wrench</t>
         </is>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>wrench</t>
+          <t>cougar face</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>a photo of wrench</t>
+          <t>a photo of cougar face</t>
         </is>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>cougar face</t>
+          <t>norfolk terrier</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>a photo of cougar face</t>
+          <t>a photo of norfolk terrier</t>
         </is>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>norfolk terrier</t>
+          <t>diaper</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>a photo of norfolk terrier</t>
+          <t>a photo of diaper</t>
         </is>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>diaper</t>
+          <t>padlock</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>a photo of diaper</t>
+          <t>a photo of padlock</t>
         </is>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>padlock</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>a photo of padlock</t>
+          <t>a photo of scale</t>
         </is>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>water lilly</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>a photo of scale</t>
+          <t>a photo of water lilly</t>
         </is>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>water lilly</t>
+          <t>ping-pong ball</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>a photo of water lilly</t>
+          <t>a photo of ping-pong ball</t>
         </is>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>ping-pong ball</t>
+          <t>brittany spaniel</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>a photo of ping-pong ball</t>
+          <t>a photo of brittany spaniel</t>
         </is>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>brittany spaniel</t>
+          <t>dumbbell</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>a photo of brittany spaniel</t>
+          <t>a photo of dumbbell</t>
         </is>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>dumbbell</t>
+          <t>bonnet</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>a photo of dumbbell</t>
+          <t>a photo of bonnet</t>
         </is>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>bonnet</t>
+          <t>bison</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>a photo of bonnet</t>
+          <t>a photo of bison</t>
         </is>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>bison</t>
+          <t>table lamp</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>a photo of bison</t>
+          <t>a photo of table lamp</t>
         </is>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>table lamp</t>
+          <t>bannister</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>a photo of table lamp</t>
+          <t>a photo of bannister</t>
         </is>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>bannister</t>
+          <t>chocolate sauce</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>a photo of bannister</t>
+          <t>a photo of chocolate sauce</t>
         </is>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>chocolate sauce</t>
+          <t>tobacco shop</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>a photo of chocolate sauce</t>
+          <t>a photo of tobacco shop</t>
         </is>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>tobacco shop</t>
+          <t>viaduct</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>a photo of tobacco shop</t>
+          <t>a photo of viaduct</t>
         </is>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>viaduct</t>
+          <t>golfcart</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>a photo of viaduct</t>
+          <t>a photo of golfcart</t>
         </is>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>golfcart</t>
+          <t>maraca</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>a photo of golfcart</t>
+          <t>a photo of maraca</t>
         </is>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>maraca</t>
+          <t>barrel</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>a photo of maraca</t>
+          <t>a photo of barrel</t>
         </is>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>barrel</t>
+          <t>corkscrew</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>a photo of barrel</t>
+          <t>a photo of corkscrew</t>
         </is>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>corkscrew</t>
+          <t>fox squirrel</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>a photo of corkscrew</t>
+          <t>a photo of fox squirrel</t>
         </is>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>fox squirrel</t>
+          <t>dungeness crab</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>a photo of fox squirrel</t>
+          <t>a photo of dungeness crab</t>
         </is>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>dungeness crab</t>
+          <t>stingray</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>a photo of dungeness crab</t>
+          <t>a photo of stingray</t>
         </is>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>stingray</t>
+          <t>inline skate</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>a photo of stingray</t>
+          <t>a photo of inline skate</t>
         </is>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>inline skate</t>
+          <t>thimble</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>a photo of inline skate</t>
+          <t>a photo of thimble</t>
         </is>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>thimble</t>
+          <t>cuirass</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>a photo of thimble</t>
+          <t>a photo of cuirass</t>
         </is>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" t="inlineStr">
         <is>
-          <t>cuirass</t>
+          <t>ringneck snake</t>
         </is>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>a photo of cuirass</t>
+          <t>a photo of ringneck snake</t>
         </is>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>ringneck snake</t>
+          <t>great dane</t>
         </is>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>a photo of ringneck snake</t>
+          <t>a photo of great dane</t>
         </is>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="inlineStr">
         <is>
-          <t>great dane</t>
+          <t>collie</t>
         </is>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>a photo of great dane</t>
+          <t>a photo of collie</t>
         </is>
       </c>
     </row>
     <row r="1687">
       <c r="A1687" t="inlineStr">
         <is>
-          <t>collie</t>
+          <t>mailbag</t>
         </is>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>a photo of collie</t>
+          <t>a photo of mailbag</t>
         </is>
       </c>
     </row>
     <row r="1688">
       <c r="A1688" t="inlineStr">
         <is>
-          <t>mailbag</t>
+          <t>mosque</t>
         </is>
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>a photo of mailbag</t>
+          <t>a photo of mosque</t>
         </is>
       </c>
     </row>
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>mosque</t>
+          <t>plastic bag</t>
         </is>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>a photo of mosque</t>
+          <t>a photo of plastic bag</t>
         </is>
       </c>
     </row>
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>plastic bag</t>
+          <t>saint bernard</t>
         </is>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>a photo of plastic bag</t>
+          <t>a photo of saint bernard</t>
         </is>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" t="inlineStr">
         <is>
-          <t>saint bernard</t>
+          <t>tiger cat</t>
         </is>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>a photo of saint bernard</t>
+          <t>a photo of tiger cat</t>
         </is>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>tiger cat</t>
+          <t>gorilla</t>
         </is>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>a photo of tiger cat</t>
+          <t>a photo of gorilla</t>
         </is>
       </c>
     </row>
     <row r="1693">
       <c r="A1693" t="inlineStr">
         <is>
-          <t>gorilla</t>
+          <t>binoculars</t>
         </is>
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t>a photo of gorilla</t>
+          <t>a photo of binoculars</t>
         </is>
       </c>
     </row>
     <row r="1694">
       <c r="A1694" t="inlineStr">
         <is>
-          <t>binoculars</t>
+          <t>container ship</t>
         </is>
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>a photo of binoculars</t>
+          <t>a photo of container ship</t>
         </is>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" t="inlineStr">
         <is>
-          <t>container ship</t>
+          <t>garbage truck</t>
         </is>
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>a photo of container ship</t>
+          <t>a photo of garbage truck</t>
         </is>
       </c>
     </row>
     <row r="1696">
       <c r="A1696" t="inlineStr">
         <is>
-          <t>garbage truck</t>
+          <t>hand blower</t>
         </is>
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>a photo of garbage truck</t>
+          <t>a photo of hand blower</t>
         </is>
       </c>
     </row>
     <row r="1697">
       <c r="A1697" t="inlineStr">
         <is>
-          <t>hand blower</t>
+          <t>rugby ball</t>
         </is>
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>a photo of hand blower</t>
+          <t>a photo of rugby ball</t>
         </is>
       </c>
     </row>
     <row r="1698">
       <c r="A1698" t="inlineStr">
         <is>
-          <t>rugby ball</t>
+          <t>accordion</t>
         </is>
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>a photo of rugby ball</t>
+          <t>a photo of accordion</t>
         </is>
       </c>
     </row>
     <row r="1699">
       <c r="A1699" t="inlineStr">
         <is>
-          <t>accordion</t>
+          <t>chihuahua</t>
         </is>
       </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t>a photo of accordion</t>
+          <t>a photo of chihuahua</t>
         </is>
       </c>
     </row>
     <row r="1700">
       <c r="A1700" t="inlineStr">
         <is>
-          <t>chihuahua</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>a photo of chihuahua</t>
+          <t>a photo of rule</t>
         </is>
       </c>
     </row>
     <row r="1701">
       <c r="A1701" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>pigeon</t>
         </is>
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>a photo of rule</t>
+          <t>a photo of pigeon</t>
         </is>
       </c>
     </row>
     <row r="1702">
       <c r="A1702" t="inlineStr">
         <is>
-          <t>pigeon</t>
+          <t>west highland white terrier</t>
         </is>
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t>a photo of pigeon</t>
+          <t>a photo of west highland white terrier</t>
         </is>
       </c>
     </row>
     <row r="1703">
       <c r="A1703" t="inlineStr">
         <is>
-          <t>west highland white terrier</t>
+          <t>bolo tie</t>
         </is>
       </c>
       <c r="B1703" t="inlineStr">
         <is>
-          <t>a photo of west highland white terrier</t>
+          <t>a photo of bolo tie</t>
         </is>
       </c>
     </row>
     <row r="1704">
       <c r="A1704" t="inlineStr">
         <is>
-          <t>bolo tie</t>
+          <t>seashore</t>
         </is>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>a photo of bolo tie</t>
+          <t>a photo of seashore</t>
         </is>
       </c>
     </row>
     <row r="1705">
       <c r="A1705" t="inlineStr">
         <is>
-          <t>seashore</t>
+          <t>fire hydrant</t>
         </is>
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>a photo of seashore</t>
+          <t>a photo of fire hydrant</t>
         </is>
       </c>
     </row>
     <row r="1706">
       <c r="A1706" t="inlineStr">
         <is>
-          <t>fire hydrant</t>
+          <t>sunflower</t>
         </is>
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>a photo of fire hydrant</t>
+          <t>a photo of sunflower</t>
         </is>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" t="inlineStr">
         <is>
-          <t>sunflower</t>
+          <t>lorikeet</t>
         </is>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>a photo of sunflower</t>
+          <t>a photo of lorikeet</t>
         </is>
       </c>
     </row>
     <row r="1708">
       <c r="A1708" t="inlineStr">
         <is>
-          <t>lorikeet</t>
+          <t>monkey</t>
         </is>
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>a photo of lorikeet</t>
+          <t>a photo of monkey</t>
         </is>
       </c>
     </row>
     <row r="1709">
       <c r="A1709" t="inlineStr">
         <is>
-          <t>Faces</t>
+          <t>weimaraner</t>
         </is>
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>a photo of Faces</t>
+          <t>a photo of weimaraner</t>
         </is>
       </c>
     </row>
     <row r="1710">
       <c r="A1710" t="inlineStr">
         <is>
-          <t>weimaraner</t>
+          <t>spiny lobster</t>
         </is>
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>a photo of weimaraner</t>
+          <t>a photo of spiny lobster</t>
         </is>
       </c>
     </row>
     <row r="1711">
       <c r="A1711" t="inlineStr">
         <is>
-          <t>spiny lobster</t>
+          <t>gasmask</t>
         </is>
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>a photo of spiny lobster</t>
+          <t>a photo of gasmask</t>
         </is>
       </c>
     </row>
     <row r="1712">
       <c r="A1712" t="inlineStr">
         <is>
-          <t>gasmask</t>
+          <t>parallel bars</t>
         </is>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>a photo of gasmask</t>
+          <t>a photo of parallel bars</t>
         </is>
       </c>
     </row>
     <row r="1713">
       <c r="A1713" t="inlineStr">
         <is>
-          <t>parallel bars</t>
+          <t>pill bottle</t>
         </is>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>a photo of parallel bars</t>
+          <t>a photo of pill bottle</t>
         </is>
       </c>
     </row>
     <row r="1714">
       <c r="A1714" t="inlineStr">
         <is>
-          <t>pill bottle</t>
+          <t>sarong</t>
         </is>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>a photo of pill bottle</t>
+          <t>a photo of sarong</t>
         </is>
       </c>
     </row>
     <row r="1715">
       <c r="A1715" t="inlineStr">
         <is>
-          <t>sarong</t>
+          <t>triumphal arch</t>
         </is>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>a photo of sarong</t>
+          <t>a photo of triumphal arch</t>
         </is>
       </c>
     </row>
     <row r="1716">
       <c r="A1716" t="inlineStr">
         <is>
-          <t>triumphal arch</t>
+          <t>book jacket</t>
         </is>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>a photo of triumphal arch</t>
+          <t>a photo of book jacket</t>
         </is>
       </c>
     </row>
     <row r="1717">
       <c r="A1717" t="inlineStr">
         <is>
-          <t>book jacket</t>
+          <t>motorbikes</t>
         </is>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>a photo of book jacket</t>
+          <t>a photo of motorbikes</t>
         </is>
       </c>
     </row>
     <row r="1718">
       <c r="A1718" t="inlineStr">
         <is>
-          <t>monkey</t>
+          <t>siamang</t>
         </is>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>a photo of monkey</t>
+          <t>a photo of siamang</t>
         </is>
       </c>
     </row>
     <row r="1719">
       <c r="A1719" t="inlineStr">
         <is>
-          <t>siamang</t>
+          <t>tvmonitor</t>
         </is>
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>a photo of siamang</t>
+          <t>a photo of tvmonitor</t>
         </is>
       </c>
     </row>
     <row r="1720">
       <c r="A1720" t="inlineStr">
         <is>
-          <t>tvmonitor</t>
+          <t>boathouse</t>
         </is>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
-          <t>a photo of tvmonitor</t>
+          <t>a photo of boathouse</t>
         </is>
       </c>
     </row>
     <row r="1721">
       <c r="A1721" t="inlineStr">
         <is>
-          <t>boathouse</t>
+          <t>stretcher</t>
         </is>
       </c>
       <c r="B1721" t="inlineStr">
         <is>
-          <t>a photo of boathouse</t>
+          <t>a photo of stretcher</t>
         </is>
       </c>
     </row>
     <row r="1722">
       <c r="A1722" t="inlineStr">
         <is>
-          <t>stretcher</t>
+          <t>catamaran</t>
         </is>
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>a photo of stretcher</t>
+          <t>a photo of catamaran</t>
         </is>
       </c>
     </row>
     <row r="1723">
       <c r="A1723" t="inlineStr">
         <is>
-          <t>catamaran</t>
+          <t>espresso</t>
         </is>
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>a photo of catamaran</t>
+          <t>a photo of espresso</t>
         </is>
       </c>
     </row>
     <row r="1724">
       <c r="A1724" t="inlineStr">
         <is>
-          <t>espresso</t>
+          <t>volleyball</t>
         </is>
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>a photo of espresso</t>
+          <t>a photo of volleyball</t>
         </is>
       </c>
     </row>
     <row r="1725">
       <c r="A1725" t="inlineStr">
         <is>
-          <t>volleyball</t>
+          <t>go-kart</t>
         </is>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>a photo of volleyball</t>
+          <t>a photo of go-kart</t>
         </is>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" t="inlineStr">
         <is>
-          <t>go-kart</t>
+          <t>water tower</t>
         </is>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>a photo of go-kart</t>
+          <t>a photo of water tower</t>
         </is>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="inlineStr">
         <is>
-          <t>water tower</t>
+          <t>mixing bowl</t>
         </is>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>a photo of water tower</t>
+          <t>a photo of mixing bowl</t>
         </is>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" t="inlineStr">
         <is>
-          <t>mixing bowl</t>
+          <t>traffic light</t>
         </is>
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t>a photo of mixing bowl</t>
+          <t>a photo of traffic light</t>
         </is>
       </c>
     </row>
     <row r="1729">
       <c r="A1729" t="inlineStr">
         <is>
-          <t>traffic light</t>
+          <t>buddha</t>
         </is>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>a photo of traffic light</t>
+          <t>a photo of buddha</t>
         </is>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="inlineStr">
         <is>
-          <t>buddha</t>
+          <t>coho</t>
         </is>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>a photo of buddha</t>
+          <t>a photo of coho</t>
         </is>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" t="inlineStr">
         <is>
-          <t>coho</t>
+          <t>dalmatian</t>
         </is>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
-          <t>a photo of coho</t>
+          <t>a photo of dalmatian</t>
         </is>
       </c>
     </row>
     <row r="1732">
       <c r="A1732" t="inlineStr">
         <is>
-          <t>dalmatian</t>
+          <t>crib</t>
         </is>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>a photo of dalmatian</t>
+          <t>a photo of crib</t>
         </is>
       </c>
     </row>
     <row r="1733">
       <c r="A1733" t="inlineStr">
         <is>
-          <t>crib</t>
+          <t>motor scooter</t>
         </is>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>a photo of crib</t>
+          <t>a photo of motor scooter</t>
         </is>
       </c>
     </row>
     <row r="1734">
       <c r="A1734" t="inlineStr">
         <is>
-          <t>motor scooter</t>
+          <t>madagascar cat</t>
         </is>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>a photo of motor scooter</t>
+          <t>a photo of madagascar cat</t>
         </is>
       </c>
     </row>
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>madagascar cat</t>
+          <t>computer keyboard</t>
         </is>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>a photo of madagascar cat</t>
+          <t>a photo of computer keyboard</t>
         </is>
       </c>
     </row>
     <row r="1736">
       <c r="A1736" t="inlineStr">
         <is>
-          <t>computer keyboard</t>
+          <t>black swan</t>
         </is>
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>a photo of computer keyboard</t>
+          <t>a photo of black swan</t>
         </is>
       </c>
     </row>
     <row r="1737">
       <c r="A1737" t="inlineStr">
         <is>
-          <t>black swan</t>
+          <t>car wheel</t>
         </is>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>a photo of black swan</t>
+          <t>a photo of car wheel</t>
         </is>
       </c>
     </row>
     <row r="1738">
       <c r="A1738" t="inlineStr">
         <is>
-          <t>car wheel</t>
+          <t>china cabinet</t>
         </is>
       </c>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>a photo of car wheel</t>
+          <t>a photo of china cabinet</t>
         </is>
       </c>
     </row>
     <row r="1739">
       <c r="A1739" t="inlineStr">
         <is>
-          <t>china cabinet</t>
+          <t>rotisserie</t>
         </is>
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>a photo of china cabinet</t>
+          <t>a photo of rotisserie</t>
         </is>
       </c>
     </row>
     <row r="1740">
       <c r="A1740" t="inlineStr">
         <is>
-          <t>rotisserie</t>
+          <t>barber chair</t>
         </is>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>a photo of rotisserie</t>
+          <t>a photo of barber chair</t>
         </is>
       </c>
     </row>
     <row r="1741">
       <c r="A1741" t="inlineStr">
         <is>
-          <t>barber chair</t>
+          <t>tabby</t>
         </is>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>a photo of barber chair</t>
+          <t>a photo of tabby</t>
         </is>
       </c>
     </row>
     <row r="1742">
       <c r="A1742" t="inlineStr">
         <is>
-          <t>tabby</t>
+          <t>mobile home</t>
         </is>
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>a photo of tabby</t>
+          <t>a photo of mobile home</t>
         </is>
       </c>
     </row>
     <row r="1743">
       <c r="A1743" t="inlineStr">
         <is>
-          <t>mobile home</t>
+          <t>odometer</t>
         </is>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>a photo of mobile home</t>
+          <t>a photo of odometer</t>
         </is>
       </c>
     </row>
     <row r="1744">
       <c r="A1744" t="inlineStr">
         <is>
-          <t>odometer</t>
+          <t>pedestal</t>
         </is>
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>a photo of odometer</t>
+          <t>a photo of pedestal</t>
         </is>
       </c>
     </row>
     <row r="1745">
       <c r="A1745" t="inlineStr">
         <is>
-          <t>pedestal</t>
+          <t>malamute</t>
         </is>
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>a photo of pedestal</t>
+          <t>a photo of malamute</t>
         </is>
       </c>
     </row>
     <row r="1746">
       <c r="A1746" t="inlineStr">
         <is>
-          <t>malamute</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>a photo of malamute</t>
+          <t>a photo of dog</t>
         </is>
       </c>
     </row>
     <row r="1747">
       <c r="A1747" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>japanese spaniel</t>
         </is>
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>a photo of dog</t>
+          <t>a photo of japanese spaniel</t>
         </is>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="inlineStr">
         <is>
-          <t>japanese spaniel</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>a photo of japanese spaniel</t>
+          <t>a photo of bus</t>
         </is>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>dining table</t>
         </is>
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>a photo of bus</t>
+          <t>a photo of dining table</t>
         </is>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="inlineStr">
         <is>
-          <t>dining table</t>
+          <t>electric guitar</t>
         </is>
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>a photo of dining table</t>
+          <t>a photo of electric guitar</t>
         </is>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="inlineStr">
         <is>
-          <t>electric guitar</t>
+          <t>shopping cart</t>
         </is>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>a photo of electric guitar</t>
+          <t>a photo of shopping cart</t>
         </is>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="inlineStr">
         <is>
-          <t>shopping cart</t>
+          <t>barracouta</t>
         </is>
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>a photo of shopping cart</t>
+          <t>a photo of barracouta</t>
         </is>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="inlineStr">
         <is>
-          <t>barracouta</t>
+          <t>wig</t>
         </is>
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>a photo of barracouta</t>
+          <t>a photo of wig</t>
         </is>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="inlineStr">
         <is>
-          <t>wig</t>
+          <t>gong</t>
         </is>
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>a photo of wig</t>
+          <t>a photo of gong</t>
         </is>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="inlineStr">
         <is>
-          <t>gong</t>
+          <t>scissors</t>
         </is>
       </c>
       <c r="B1755" t="inlineStr">
         <is>
-          <t>a photo of gong</t>
+          <t>a photo of scissors</t>
         </is>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="inlineStr">
         <is>
-          <t>scissors</t>
+          <t>solar dish</t>
         </is>
       </c>
       <c r="B1756" t="inlineStr">
         <is>
-          <t>a photo of scissors</t>
+          <t>a photo of solar dish</t>
         </is>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="inlineStr">
         <is>
-          <t>solar dish</t>
+          <t>comic book</t>
         </is>
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>a photo of solar dish</t>
+          <t>a photo of comic book</t>
         </is>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="inlineStr">
         <is>
-          <t>comic book</t>
+          <t>modem</t>
         </is>
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t>a photo of comic book</t>
+          <t>a photo of modem</t>
         </is>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="inlineStr">
         <is>
-          <t>modem</t>
+          <t>oboe</t>
         </is>
       </c>
       <c r="B1759" t="inlineStr">
         <is>
-          <t>a photo of modem</t>
+          <t>a photo of oboe</t>
         </is>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="inlineStr">
         <is>
-          <t>oboe</t>
+          <t>brown bear</t>
         </is>
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>a photo of oboe</t>
+          <t>a photo of brown bear</t>
         </is>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="inlineStr">
         <is>
-          <t>brown bear</t>
+          <t>indri</t>
         </is>
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>a photo of brown bear</t>
+          <t>a photo of indri</t>
         </is>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="inlineStr">
         <is>
-          <t>indri</t>
+          <t>screen</t>
         </is>
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>a photo of indri</t>
+          <t>a photo of screen</t>
         </is>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="inlineStr">
         <is>
-          <t>screen</t>
+          <t>hot dog</t>
         </is>
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>a photo of screen</t>
+          <t>a photo of hot dog</t>
         </is>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="inlineStr">
         <is>
-          <t>hot dog</t>
+          <t>egyptian cat</t>
         </is>
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>a photo of hot dog</t>
+          <t>a photo of egyptian cat</t>
         </is>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="inlineStr">
         <is>
-          <t>egyptian cat</t>
+          <t>pembroke</t>
         </is>
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>a photo of egyptian cat</t>
+          <t>a photo of pembroke</t>
         </is>
       </c>
     </row>
     <row r="1766">
       <c r="A1766" t="inlineStr">
         <is>
-          <t>pembroke</t>
+          <t>cannon</t>
         </is>
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>a photo of pembroke</t>
+          <t>a photo of cannon</t>
         </is>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="inlineStr">
         <is>
-          <t>cannon</t>
+          <t>shih-tzu</t>
         </is>
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>a photo of cannon</t>
+          <t>a photo of shih-tzu</t>
         </is>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="inlineStr">
         <is>
-          <t>shih-tzu</t>
+          <t>ski</t>
         </is>
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>a photo of shih-tzu</t>
+          <t>a photo of ski</t>
         </is>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="inlineStr">
         <is>
-          <t>ski</t>
+          <t>house finch</t>
         </is>
       </c>
       <c r="B1769" t="inlineStr">
         <is>
-          <t>a photo of ski</t>
+          <t>a photo of house finch</t>
         </is>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="inlineStr">
         <is>
-          <t>house finch</t>
+          <t>lab coat</t>
         </is>
       </c>
       <c r="B1770" t="inlineStr">
         <is>
-          <t>a photo of house finch</t>
+          <t>a photo of lab coat</t>
         </is>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="inlineStr">
         <is>
-          <t>lab coat</t>
+          <t>great pyrenees</t>
         </is>
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>a photo of lab coat</t>
+          <t>a photo of great pyrenees</t>
         </is>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="inlineStr">
         <is>
-          <t>great pyrenees</t>
+          <t>wine glass</t>
         </is>
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>a photo of great pyrenees</t>
+          <t>a photo of wine glass</t>
         </is>
       </c>
     </row>
     <row r="1773">
       <c r="A1773" t="inlineStr">
         <is>
-          <t>wine glass</t>
+          <t>four-poster</t>
         </is>
       </c>
       <c r="B1773" t="inlineStr">
         <is>
-          <t>a photo of wine glass</t>
+          <t>a photo of four-poster</t>
         </is>
       </c>
     </row>
     <row r="1774">
       <c r="A1774" t="inlineStr">
         <is>
-          <t>four-poster</t>
+          <t>redshank</t>
         </is>
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>a photo of four-poster</t>
+          <t>a photo of redshank</t>
         </is>
       </c>
     </row>
     <row r="1775">
       <c r="A1775" t="inlineStr">
         <is>
-          <t>redshank</t>
+          <t>squirrel monkey</t>
         </is>
       </c>
       <c r="B1775" t="inlineStr">
         <is>
-          <t>a photo of redshank</t>
+          <t>a photo of squirrel monkey</t>
         </is>
       </c>
     </row>
     <row r="1776">
       <c r="A1776" t="inlineStr">
         <is>
-          <t>squirrel monkey</t>
+          <t>coil</t>
         </is>
       </c>
       <c r="B1776" t="inlineStr">
         <is>
-          <t>a photo of squirrel monkey</t>
+          <t>a photo of coil</t>
         </is>
       </c>
     </row>
     <row r="1777">
       <c r="A1777" t="inlineStr">
         <is>
-          <t>coil</t>
+          <t>english setter</t>
         </is>
       </c>
       <c r="B1777" t="inlineStr">
         <is>
-          <t>a photo of coil</t>
+          <t>a photo of english setter</t>
         </is>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" t="inlineStr">
         <is>
-          <t>english setter</t>
+          <t>mantis</t>
         </is>
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>a photo of english setter</t>
+          <t>a photo of mantis</t>
         </is>
       </c>
     </row>
     <row r="1779">
       <c r="A1779" t="inlineStr">
         <is>
-          <t>mantis</t>
+          <t>water snake</t>
         </is>
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>a photo of mantis</t>
+          <t>a photo of water snake</t>
         </is>
       </c>
     </row>
     <row r="1780">
       <c r="A1780" t="inlineStr">
         <is>
-          <t>water snake</t>
+          <t>oxcart</t>
         </is>
       </c>
       <c r="B1780" t="inlineStr">
         <is>
-          <t>a photo of water snake</t>
+          <t>a photo of oxcart</t>
         </is>
       </c>
     </row>
     <row r="1781">
       <c r="A1781" t="inlineStr">
         <is>
-          <t>oxcart</t>
+          <t>redbone</t>
         </is>
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>a photo of oxcart</t>
+          <t>a photo of redbone</t>
         </is>
       </c>
     </row>
     <row r="1782">
       <c r="A1782" t="inlineStr">
         <is>
-          <t>redbone</t>
+          <t>bass</t>
         </is>
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>a photo of redbone</t>
+          <t>a photo of bass</t>
         </is>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" t="inlineStr">
         <is>
-          <t>bass</t>
+          <t>drum</t>
         </is>
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>a photo of bass</t>
+          <t>a photo of drum</t>
         </is>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" t="inlineStr">
         <is>
-          <t>drum</t>
+          <t>band aid</t>
         </is>
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t>a photo of drum</t>
+          <t>a photo of band aid</t>
         </is>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="inlineStr">
         <is>
-          <t>band aid</t>
+          <t>lipstick</t>
         </is>
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>a photo of band aid</t>
+          <t>a photo of lipstick</t>
         </is>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" t="inlineStr">
         <is>
-          <t>lipstick</t>
+          <t>spotted salamander</t>
         </is>
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>a photo of lipstick</t>
+          <t>a photo of spotted salamander</t>
         </is>
       </c>
     </row>
     <row r="1787">
       <c r="A1787" t="inlineStr">
         <is>
-          <t>spotted salamander</t>
+          <t>passenger car</t>
         </is>
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>a photo of spotted salamander</t>
+          <t>a photo of passenger car</t>
         </is>
       </c>
     </row>
     <row r="1788">
       <c r="A1788" t="inlineStr">
         <is>
-          <t>passenger car</t>
+          <t>zucchini</t>
         </is>
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>a photo of passenger car</t>
+          <t>a photo of zucchini</t>
         </is>
       </c>
     </row>
     <row r="1789">
       <c r="A1789" t="inlineStr">
         <is>
-          <t>zucchini</t>
+          <t>toilet</t>
         </is>
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>a photo of zucchini</t>
+          <t>a photo of toilet</t>
         </is>
       </c>
     </row>
     <row r="1790">
       <c r="A1790" t="inlineStr">
         <is>
-          <t>toilet</t>
+          <t>book</t>
         </is>
       </c>
       <c r="B1790" t="inlineStr">
         <is>
-          <t>a photo of toilet</t>
+          <t>a photo of book</t>
         </is>
       </c>
     </row>
     <row r="1791">
       <c r="A1791" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>knife</t>
         </is>
       </c>
       <c r="B1791" t="inlineStr">
         <is>
-          <t>a photo of book</t>
+          <t>a photo of knife</t>
         </is>
       </c>
     </row>
     <row r="1792">
       <c r="A1792" t="inlineStr">
         <is>
-          <t>knife</t>
+          <t>coffee mug</t>
         </is>
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>a photo of knife</t>
+          <t>a photo of coffee mug</t>
         </is>
       </c>
     </row>
     <row r="1793">
       <c r="A1793" t="inlineStr">
         <is>
-          <t>coffee mug</t>
+          <t>stole</t>
         </is>
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>a photo of coffee mug</t>
+          <t>a photo of stole</t>
         </is>
       </c>
     </row>
     <row r="1794">
       <c r="A1794" t="inlineStr">
         <is>
-          <t>stole</t>
+          <t>boa constrictor</t>
         </is>
       </c>
       <c r="B1794" t="inlineStr">
         <is>
-          <t>a photo of stole</t>
+          <t>a photo of boa constrictor</t>
         </is>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" t="inlineStr">
         <is>
-          <t>boa constrictor</t>
+          <t>pinwheel</t>
         </is>
       </c>
       <c r="B1795" t="inlineStr">
         <is>
-          <t>a photo of boa constrictor</t>
+          <t>a photo of pinwheel</t>
         </is>
       </c>
     </row>
     <row r="1796">
       <c r="A1796" t="inlineStr">
         <is>
-          <t>pinwheel</t>
+          <t>cow</t>
         </is>
       </c>
       <c r="B1796" t="inlineStr">
         <is>
-          <t>a photo of pinwheel</t>
+          <t>a photo of cow</t>
         </is>
       </c>
     </row>
     <row r="1797">
       <c r="A1797" t="inlineStr">
         <is>
-          <t>cow</t>
+          <t>kerry blue terrier</t>
         </is>
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t>a photo of cow</t>
+          <t>a photo of kerry blue terrier</t>
         </is>
       </c>
     </row>
     <row r="1798">
       <c r="A1798" t="inlineStr">
         <is>
-          <t>kerry blue terrier</t>
+          <t>doberman</t>
         </is>
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t>a photo of kerry blue terrier</t>
+          <t>a photo of doberman</t>
         </is>
       </c>
     </row>
     <row r="1799">
       <c r="A1799" t="inlineStr">
         <is>
-          <t>doberman</t>
+          <t>digital watch</t>
         </is>
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>a photo of doberman</t>
+          <t>a photo of digital watch</t>
         </is>
       </c>
     </row>
     <row r="1800">
       <c r="A1800" t="inlineStr">
         <is>
-          <t>digital watch</t>
+          <t>torch</t>
         </is>
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>a photo of digital watch</t>
+          <t>a photo of torch</t>
         </is>
       </c>
     </row>
     <row r="1801">
       <c r="A1801" t="inlineStr">
         <is>
-          <t>torch</t>
+          <t>goose</t>
         </is>
       </c>
       <c r="B1801" t="inlineStr">
         <is>
-          <t>a photo of torch</t>
+          <t>a photo of goose</t>
         </is>
       </c>
     </row>
     <row r="1802">
       <c r="A1802" t="inlineStr">
         <is>
-          <t>goose</t>
+          <t>headphone</t>
         </is>
       </c>
       <c r="B1802" t="inlineStr">
         <is>
-          <t>a photo of goose</t>
+          <t>a photo of headphone</t>
         </is>
       </c>
     </row>
     <row r="1803">
       <c r="A1803" t="inlineStr">
         <is>
-          <t>headphone</t>
+          <t>toy terrier</t>
         </is>
       </c>
       <c r="B1803" t="inlineStr">
         <is>
-          <t>a photo of headphone</t>
+          <t>a photo of toy terrier</t>
         </is>
       </c>
     </row>
     <row r="1804">
       <c r="A1804" t="inlineStr">
         <is>
-          <t>toy terrier</t>
+          <t>waffle iron</t>
         </is>
       </c>
       <c r="B1804" t="inlineStr">
         <is>
-          <t>a photo of toy terrier</t>
+          <t>a photo of waffle iron</t>
         </is>
       </c>
     </row>
     <row r="1805">
       <c r="A1805" t="inlineStr">
         <is>
-          <t>waffle iron</t>
+          <t>car</t>
         </is>
       </c>
       <c r="B1805" t="inlineStr">
         <is>
-          <t>a photo of waffle iron</t>
+          <t>a photo of car</t>
         </is>
       </c>
     </row>
     <row r="1806">
       <c r="A1806" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>submarine</t>
         </is>
       </c>
       <c r="B1806" t="inlineStr">
         <is>
-          <t>a photo of car</t>
+          <t>a photo of submarine</t>
         </is>
       </c>
     </row>
     <row r="1807">
       <c r="A1807" t="inlineStr">
         <is>
-          <t>submarine</t>
+          <t>planetarium</t>
         </is>
       </c>
       <c r="B1807" t="inlineStr">
         <is>
-          <t>a photo of submarine</t>
+          <t>a photo of planetarium</t>
         </is>
       </c>
     </row>
     <row r="1808">
       <c r="A1808" t="inlineStr">
         <is>
-          <t>planetarium</t>
+          <t>carton</t>
         </is>
       </c>
       <c r="B1808" t="inlineStr">
         <is>
-          <t>a photo of planetarium</t>
+          <t>a photo of carton</t>
         </is>
       </c>
     </row>
     <row r="1809">
       <c r="A1809" t="inlineStr">
         <is>
-          <t>carton</t>
+          <t>tripod</t>
         </is>
       </c>
       <c r="B1809" t="inlineStr">
         <is>
-          <t>a photo of carton</t>
+          <t>a photo of tripod</t>
         </is>
       </c>
     </row>
     <row r="1810">
       <c r="A1810" t="inlineStr">
         <is>
-          <t>tripod</t>
+          <t>mitten</t>
         </is>
       </c>
       <c r="B1810" t="inlineStr">
         <is>
-          <t>a photo of tripod</t>
+          <t>a photo of mitten</t>
         </is>
       </c>
     </row>
     <row r="1811">
       <c r="A1811" t="inlineStr">
         <is>
-          <t>mitten</t>
+          <t>newfoundland</t>
         </is>
       </c>
       <c r="B1811" t="inlineStr">
         <is>
-          <t>a photo of mitten</t>
+          <t>a photo of newfoundland</t>
         </is>
       </c>
     </row>
     <row r="1812">
       <c r="A1812" t="inlineStr">
         <is>
-          <t>newfoundland</t>
+          <t>gar</t>
         </is>
       </c>
       <c r="B1812" t="inlineStr">
         <is>
-          <t>a photo of newfoundland</t>
+          <t>a photo of gar</t>
         </is>
       </c>
     </row>
     <row r="1813">
       <c r="A1813" t="inlineStr">
         <is>
-          <t>gar</t>
+          <t>fountain</t>
         </is>
       </c>
       <c r="B1813" t="inlineStr">
         <is>
-          <t>a photo of gar</t>
+          <t>a photo of fountain</t>
         </is>
       </c>
     </row>
     <row r="1814">
       <c r="A1814" t="inlineStr">
         <is>
-          <t>fountain</t>
+          <t>cash machine</t>
         </is>
       </c>
       <c r="B1814" t="inlineStr">
         <is>
-          <t>a photo of fountain</t>
+          <t>a photo of cash machine</t>
         </is>
       </c>
     </row>
     <row r="1815">
       <c r="A1815" t="inlineStr">
         <is>
-          <t>cash machine</t>
+          <t>kuvasz</t>
         </is>
       </c>
       <c r="B1815" t="inlineStr">
         <is>
-          <t>a photo of cash machine</t>
+          <t>a photo of kuvasz</t>
         </is>
       </c>
     </row>
     <row r="1816">
       <c r="A1816" t="inlineStr">
         <is>
-          <t>kuvasz</t>
+          <t>toilet tissue</t>
         </is>
       </c>
       <c r="B1816" t="inlineStr">
         <is>
-          <t>a photo of kuvasz</t>
+          <t>a photo of toilet tissue</t>
         </is>
       </c>
     </row>
     <row r="1817">
       <c r="A1817" t="inlineStr">
         <is>
-          <t>toilet tissue</t>
+          <t>petri dish</t>
         </is>
       </c>
       <c r="B1817" t="inlineStr">
         <is>
-          <t>a photo of toilet tissue</t>
+          <t>a photo of petri dish</t>
         </is>
       </c>
     </row>
     <row r="1818">
       <c r="A1818" t="inlineStr">
         <is>
-          <t>petri dish</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B1818" t="inlineStr">
         <is>
-          <t>a photo of petri dish</t>
+          <t>a photo of person</t>
         </is>
       </c>
     </row>
     <row r="1819">
       <c r="A1819" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>dugong</t>
         </is>
       </c>
       <c r="B1819" t="inlineStr">
         <is>
-          <t>a photo of person</t>
+          <t>a photo of dugong</t>
         </is>
       </c>
     </row>
     <row r="1820">
       <c r="A1820" t="inlineStr">
         <is>
-          <t>dugong</t>
+          <t>eggnog</t>
         </is>
       </c>
       <c r="B1820" t="inlineStr">
         <is>
-          <t>a photo of dugong</t>
+          <t>a photo of eggnog</t>
         </is>
       </c>
     </row>
     <row r="1821">
       <c r="A1821" t="inlineStr">
         <is>
-          <t>eggnog</t>
+          <t>black widow</t>
         </is>
       </c>
       <c r="B1821" t="inlineStr">
         <is>
-          <t>a photo of eggnog</t>
+          <t>a photo of black widow</t>
         </is>
       </c>
     </row>
     <row r="1822">
       <c r="A1822" t="inlineStr">
         <is>
-          <t>black widow</t>
+          <t>sax</t>
         </is>
       </c>
       <c r="B1822" t="inlineStr">
         <is>
-          <t>a photo of black widow</t>
+          <t>a photo of sax</t>
         </is>
       </c>
     </row>
     <row r="1823">
       <c r="A1823" t="inlineStr">
         <is>
-          <t>sax</t>
+          <t>border collie</t>
         </is>
       </c>
       <c r="B1823" t="inlineStr">
         <is>
-          <t>a photo of sax</t>
+          <t>a photo of border collie</t>
         </is>
       </c>
     </row>
     <row r="1824">
       <c r="A1824" t="inlineStr">
         <is>
-          <t>border collie</t>
+          <t>miniskirt</t>
         </is>
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t>a photo of border collie</t>
+          <t>a photo of miniskirt</t>
         </is>
       </c>
     </row>
     <row r="1825">
       <c r="A1825" t="inlineStr">
         <is>
-          <t>miniskirt</t>
+          <t>custard apple</t>
         </is>
       </c>
       <c r="B1825" t="inlineStr">
         <is>
-          <t>a photo of miniskirt</t>
+          <t>a photo of custard apple</t>
         </is>
       </c>
     </row>
     <row r="1826">
       <c r="A1826" t="inlineStr">
         <is>
-          <t>custard apple</t>
+          <t>volcano</t>
         </is>
       </c>
       <c r="B1826" t="inlineStr">
         <is>
-          <t>a photo of custard apple</t>
+          <t>a photo of volcano</t>
         </is>
       </c>
     </row>
     <row r="1827">
       <c r="A1827" t="inlineStr">
         <is>
-          <t>volcano</t>
+          <t>green snake</t>
         </is>
       </c>
       <c r="B1827" t="inlineStr">
         <is>
-          <t>a photo of volcano</t>
+          <t>a photo of green snake</t>
         </is>
       </c>
     </row>
     <row r="1828">
       <c r="A1828" t="inlineStr">
         <is>
-          <t>green snake</t>
+          <t>dowitcher</t>
         </is>
       </c>
       <c r="B1828" t="inlineStr">
         <is>
-          <t>a photo of green snake</t>
+          <t>a photo of dowitcher</t>
         </is>
       </c>
     </row>
     <row r="1829">
       <c r="A1829" t="inlineStr">
         <is>
-          <t>dowitcher</t>
+          <t>cd player</t>
         </is>
       </c>
       <c r="B1829" t="inlineStr">
         <is>
-          <t>a photo of dowitcher</t>
+          <t>a photo of cd player</t>
         </is>
       </c>
     </row>
     <row r="1830">
       <c r="A1830" t="inlineStr">
         <is>
-          <t>cd player</t>
+          <t>convertible</t>
         </is>
       </c>
       <c r="B1830" t="inlineStr">
         <is>
-          <t>a photo of cd player</t>
+          <t>a photo of convertible</t>
         </is>
       </c>
     </row>
     <row r="1831">
       <c r="A1831" t="inlineStr">
         <is>
-          <t>convertible</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="B1831" t="inlineStr">
         <is>
-          <t>a photo of convertible</t>
+          <t>a photo of mouse</t>
         </is>
       </c>
     </row>
     <row r="1832">
       <c r="A1832" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>oil filter</t>
         </is>
       </c>
       <c r="B1832" t="inlineStr">
         <is>
-          <t>a photo of mouse</t>
+          <t>a photo of oil filter</t>
         </is>
       </c>
     </row>
     <row r="1833">
       <c r="A1833" t="inlineStr">
         <is>
-          <t>oil filter</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B1833" t="inlineStr">
         <is>
-          <t>a photo of oil filter</t>
+          <t>a photo of stove</t>
         </is>
       </c>
     </row>
     <row r="1834">
       <c r="A1834" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>drake</t>
         </is>
       </c>
       <c r="B1834" t="inlineStr">
         <is>
-          <t>a photo of stove</t>
+          <t>a photo of drake</t>
         </is>
       </c>
     </row>
     <row r="1835">
       <c r="A1835" t="inlineStr">
         <is>
-          <t>drake</t>
+          <t>trolleybus</t>
         </is>
       </c>
       <c r="B1835" t="inlineStr">
         <is>
-          <t>a photo of drake</t>
+          <t>a photo of trolleybus</t>
         </is>
       </c>
     </row>
     <row r="1836">
       <c r="A1836" t="inlineStr">
         <is>
-          <t>trolleybus</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B1836" t="inlineStr">
         <is>
-          <t>a photo of trolleybus</t>
+          <t>a photo of pier</t>
         </is>
       </c>
     </row>
     <row r="1837">
       <c r="A1837" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>coucal</t>
         </is>
       </c>
       <c r="B1837" t="inlineStr">
         <is>
-          <t>a photo of pier</t>
+          <t>a photo of coucal</t>
         </is>
       </c>
     </row>
     <row r="1838">
       <c r="A1838" t="inlineStr">
         <is>
-          <t>coucal</t>
+          <t>washer</t>
         </is>
       </c>
       <c r="B1838" t="inlineStr">
         <is>
-          <t>a photo of coucal</t>
+          <t>a photo of washer</t>
         </is>
       </c>
     </row>
     <row r="1839">
       <c r="A1839" t="inlineStr">
         <is>
-          <t>washer</t>
+          <t>chiton</t>
         </is>
       </c>
       <c r="B1839" t="inlineStr">
         <is>
-          <t>a photo of washer</t>
+          <t>a photo of chiton</t>
         </is>
       </c>
     </row>
     <row r="1840">
       <c r="A1840" t="inlineStr">
         <is>
-          <t>chiton</t>
+          <t>toothbrush</t>
         </is>
       </c>
       <c r="B1840" t="inlineStr">
         <is>
-          <t>a photo of chiton</t>
+          <t>a photo of toothbrush</t>
         </is>
       </c>
     </row>
     <row r="1841">
       <c r="A1841" t="inlineStr">
         <is>
-          <t>toothbrush</t>
+          <t>granny smith</t>
         </is>
       </c>
       <c r="B1841" t="inlineStr">
         <is>
-          <t>a photo of toothbrush</t>
+          <t>a photo of granny smith</t>
         </is>
       </c>
     </row>
     <row r="1842">
       <c r="A1842" t="inlineStr">
         <is>
-          <t>granny smith</t>
+          <t>labrador retriever</t>
         </is>
       </c>
       <c r="B1842" t="inlineStr">
         <is>
-          <t>a photo of granny smith</t>
+          <t>a photo of labrador retriever</t>
         </is>
       </c>
     </row>
     <row r="1843">
       <c r="A1843" t="inlineStr">
         <is>
-          <t>labrador retriever</t>
+          <t>stethoscope</t>
         </is>
       </c>
       <c r="B1843" t="inlineStr">
         <is>
-          <t>a photo of labrador retriever</t>
+          <t>a photo of stethoscope</t>
         </is>
       </c>
     </row>
     <row r="1844">
       <c r="A1844" t="inlineStr">
         <is>
-          <t>stethoscope</t>
+          <t>pug</t>
         </is>
       </c>
       <c r="B1844" t="inlineStr">
         <is>
-          <t>a photo of stethoscope</t>
+          <t>a photo of pug</t>
         </is>
       </c>
     </row>
     <row r="1845">
       <c r="A1845" t="inlineStr">
         <is>
-          <t>pug</t>
+          <t>car side</t>
         </is>
       </c>
       <c r="B1845" t="inlineStr">
         <is>
-          <t>a photo of pug</t>
+          <t>a photo of car side</t>
         </is>
       </c>
     </row>
     <row r="1846">
       <c r="A1846" t="inlineStr">
         <is>
-          <t>car side</t>
+          <t>chandelier</t>
         </is>
       </c>
       <c r="B1846" t="inlineStr">
         <is>
-          <t>a photo of car side</t>
+          <t>a photo of chandelier</t>
         </is>
       </c>
     </row>
     <row r="1847">
       <c r="A1847" t="inlineStr">
         <is>
-          <t>chandelier</t>
+          <t>feather boa</t>
         </is>
       </c>
       <c r="B1847" t="inlineStr">
         <is>
-          <t>a photo of chandelier</t>
+          <t>a photo of feather boa</t>
         </is>
       </c>
     </row>
     <row r="1848">
       <c r="A1848" t="inlineStr">
         <is>
-          <t>feather boa</t>
+          <t>loudspeaker</t>
         </is>
       </c>
       <c r="B1848" t="inlineStr">
         <is>
-          <t>a photo of feather boa</t>
+          <t>a photo of loudspeaker</t>
         </is>
       </c>
     </row>
     <row r="1849">
       <c r="A1849" t="inlineStr">
         <is>
-          <t>loudspeaker</t>
+          <t>suspension bridge</t>
         </is>
       </c>
       <c r="B1849" t="inlineStr">
         <is>
-          <t>a photo of loudspeaker</t>
+          <t>a photo of suspension bridge</t>
         </is>
       </c>
     </row>
     <row r="1850">
       <c r="A1850" t="inlineStr">
         <is>
-          <t>suspension bridge</t>
+          <t>gila monster</t>
         </is>
       </c>
       <c r="B1850" t="inlineStr">
         <is>
-          <t>a photo of suspension bridge</t>
+          <t>a photo of gila monster</t>
         </is>
       </c>
     </row>
     <row r="1851">
       <c r="A1851" t="inlineStr">
         <is>
-          <t>gila monster</t>
+          <t>bloodhound</t>
         </is>
       </c>
       <c r="B1851" t="inlineStr">
         <is>
-          <t>a photo of gila monster</t>
+          <t>a photo of bloodhound</t>
         </is>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="inlineStr">
         <is>
-          <t>bloodhound</t>
+          <t>sorrel</t>
         </is>
       </c>
       <c r="B1852" t="inlineStr">
         <is>
-          <t>a photo of bloodhound</t>
+          <t>a photo of sorrel</t>
         </is>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" t="inlineStr">
         <is>
-          <t>sorrel</t>
+          <t>great white shark</t>
         </is>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
-          <t>a photo of sorrel</t>
+          <t>a photo of great white shark</t>
         </is>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" t="inlineStr">
         <is>
-          <t>great white shark</t>
+          <t>standard schnauzer</t>
         </is>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>a photo of great white shark</t>
+          <t>a photo of standard schnauzer</t>
         </is>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" t="inlineStr">
         <is>
-          <t>standard schnauzer</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>a photo of standard schnauzer</t>
+          <t>a photo of pizza</t>
         </is>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>cornet</t>
         </is>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>a photo of pizza</t>
+          <t>a photo of cornet</t>
         </is>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="inlineStr">
         <is>
-          <t>cornet</t>
+          <t>tree frog</t>
         </is>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
-          <t>a photo of cornet</t>
+          <t>a photo of tree frog</t>
         </is>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" t="inlineStr">
         <is>
-          <t>tree frog</t>
+          <t>gerenuk</t>
         </is>
       </c>
       <c r="B1858" t="inlineStr">
         <is>
-          <t>a photo of tree frog</t>
+          <t>a photo of gerenuk</t>
         </is>
       </c>
     </row>
     <row r="1859">
       <c r="A1859" t="inlineStr">
         <is>
-          <t>gerenuk</t>
+          <t>limpkin</t>
         </is>
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t>a photo of gerenuk</t>
+          <t>a photo of limpkin</t>
         </is>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="inlineStr">
         <is>
-          <t>limpkin</t>
+          <t>hip</t>
         </is>
       </c>
       <c r="B1860" t="inlineStr">
         <is>
-          <t>a photo of limpkin</t>
+          <t>a photo of hip</t>
         </is>
       </c>
     </row>
     <row r="1861">
       <c r="A1861" t="inlineStr">
         <is>
-          <t>hip</t>
+          <t>rock beauty</t>
         </is>
       </c>
       <c r="B1861" t="inlineStr">
         <is>
-          <t>a photo of hip</t>
+          <t>a photo of rock beauty</t>
         </is>
       </c>
     </row>
     <row r="1862">
       <c r="A1862" t="inlineStr">
         <is>
-          <t>rock beauty</t>
+          <t>thunder snake</t>
         </is>
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>a photo of rock beauty</t>
+          <t>a photo of thunder snake</t>
         </is>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>thunder snake</t>
+          <t>leopards</t>
         </is>
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>a photo of thunder snake</t>
+          <t>a photo of leopards</t>
         </is>
       </c>
     </row>
@@ -22900,444 +22900,444 @@
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>Motorbikes</t>
+          <t>octopus</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>a photo of Motorbikes</t>
+          <t>a photo of octopus</t>
         </is>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>octopus</t>
+          <t>horned viper</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>a photo of octopus</t>
+          <t>a photo of horned viper</t>
         </is>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>horned viper</t>
+          <t>library</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>a photo of horned viper</t>
+          <t>a photo of library</t>
         </is>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>capuchin</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>a photo of library</t>
+          <t>a photo of capuchin</t>
         </is>
       </c>
     </row>
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>capuchin</t>
+          <t>lemon</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>a photo of capuchin</t>
+          <t>a photo of lemon</t>
         </is>
       </c>
     </row>
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>lemon</t>
+          <t>guillotine</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>a photo of lemon</t>
+          <t>a photo of guillotine</t>
         </is>
       </c>
     </row>
     <row r="1879">
       <c r="A1879" t="inlineStr">
         <is>
-          <t>guillotine</t>
+          <t>whistle</t>
         </is>
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>a photo of guillotine</t>
+          <t>a photo of whistle</t>
         </is>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>whistle</t>
+          <t>switch</t>
         </is>
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>a photo of whistle</t>
+          <t>a photo of switch</t>
         </is>
       </c>
     </row>
     <row r="1881">
       <c r="A1881" t="inlineStr">
         <is>
-          <t>switch</t>
+          <t>soft-coated wheaten terrier</t>
         </is>
       </c>
       <c r="B1881" t="inlineStr">
         <is>
-          <t>a photo of switch</t>
+          <t>a photo of soft-coated wheaten terrier</t>
         </is>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>soft-coated wheaten terrier</t>
+          <t>komondor</t>
         </is>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>a photo of soft-coated wheaten terrier</t>
+          <t>a photo of komondor</t>
         </is>
       </c>
     </row>
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>komondor</t>
+          <t>electric fan</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>a photo of komondor</t>
+          <t>a photo of electric fan</t>
         </is>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" t="inlineStr">
         <is>
-          <t>electric fan</t>
+          <t>echidna</t>
         </is>
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>a photo of electric fan</t>
+          <t>a photo of echidna</t>
         </is>
       </c>
     </row>
     <row r="1885">
       <c r="A1885" t="inlineStr">
         <is>
-          <t>echidna</t>
+          <t>jeep</t>
         </is>
       </c>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>a photo of echidna</t>
+          <t>a photo of jeep</t>
         </is>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="inlineStr">
         <is>
-          <t>jeep</t>
+          <t>microwave</t>
         </is>
       </c>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>a photo of jeep</t>
+          <t>a photo of microwave</t>
         </is>
       </c>
     </row>
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>microwave</t>
+          <t>mortarboard</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>a photo of microwave</t>
+          <t>a photo of mortarboard</t>
         </is>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>mortarboard</t>
+          <t>nautilus</t>
         </is>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>a photo of mortarboard</t>
+          <t>a photo of nautilus</t>
         </is>
       </c>
     </row>
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>nautilus</t>
+          <t>ibizan hound</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>a photo of nautilus</t>
+          <t>a photo of ibizan hound</t>
         </is>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>ibizan hound</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>a photo of ibizan hound</t>
+          <t>a photo of spoon</t>
         </is>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>jay</t>
         </is>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>a photo of spoon</t>
+          <t>a photo of jay</t>
         </is>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>jay</t>
+          <t>warthog</t>
         </is>
       </c>
       <c r="B1892" t="inlineStr">
         <is>
-          <t>a photo of jay</t>
+          <t>a photo of warthog</t>
         </is>
       </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
         <is>
-          <t>warthog</t>
+          <t>seat belt</t>
         </is>
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>a photo of warthog</t>
+          <t>a photo of seat belt</t>
         </is>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>seat belt</t>
+          <t>abacus</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>a photo of seat belt</t>
+          <t>a photo of abacus</t>
         </is>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>abacus</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>a photo of abacus</t>
+          <t>a photo of lamp</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>american staffordshire terrier</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>a photo of lamp</t>
+          <t>a photo of american staffordshire terrier</t>
         </is>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>american staffordshire terrier</t>
+          <t>assault rifle</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>a photo of american staffordshire terrier</t>
+          <t>a photo of assault rifle</t>
         </is>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>assault rifle</t>
+          <t>lionfish</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>a photo of assault rifle</t>
+          <t>a photo of lionfish</t>
         </is>
       </c>
     </row>
     <row r="1899">
       <c r="A1899" t="inlineStr">
         <is>
-          <t>lionfish</t>
+          <t>chest</t>
         </is>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>a photo of lionfish</t>
+          <t>a photo of chest</t>
         </is>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>chest</t>
+          <t>tiger shark</t>
         </is>
       </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>a photo of chest</t>
+          <t>a photo of tiger shark</t>
         </is>
       </c>
     </row>
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>tiger shark</t>
+          <t>poncho</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>a photo of tiger shark</t>
+          <t>a photo of poncho</t>
         </is>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>poncho</t>
+          <t>hammerhead</t>
         </is>
       </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>a photo of poncho</t>
+          <t>a photo of hammerhead</t>
         </is>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>hammerhead</t>
+          <t>wombat</t>
         </is>
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>a photo of hammerhead</t>
+          <t>a photo of wombat</t>
         </is>
       </c>
     </row>
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>wombat</t>
+          <t>ruddy turnstone</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>a photo of wombat</t>
+          <t>a photo of ruddy turnstone</t>
         </is>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>ruddy turnstone</t>
+          <t>airedale</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>a photo of ruddy turnstone</t>
+          <t>a photo of airedale</t>
         </is>
       </c>
     </row>
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>airedale</t>
+          <t>admiral</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>a photo of airedale</t>
+          <t>a photo of admiral</t>
         </is>
       </c>
     </row>
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>admiral</t>
+          <t>agaric</t>
         </is>
       </c>
       <c r="B1907" t="inlineStr">
         <is>
-          <t>a photo of admiral</t>
+          <t>a photo of agaric</t>
         </is>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>agaric</t>
+          <t>bald eagle</t>
         </is>
       </c>
       <c r="B1908" t="inlineStr">
         <is>
-          <t>a photo of agaric</t>
+          <t>a photo of bald eagle</t>
         </is>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="inlineStr">
         <is>
-          <t>bald eagle</t>
+          <t>faces</t>
         </is>
       </c>
       <c r="B1909" t="inlineStr">
         <is>
-          <t>a photo of bald eagle</t>
+          <t>a photo of faces</t>
         </is>
       </c>
     </row>
@@ -25756,2256 +25756,2256 @@
     <row r="2111">
       <c r="A2111" t="inlineStr">
         <is>
-          <t>red-backed sandpiper</t>
+          <t>faces easy</t>
         </is>
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>a photo of red-backed sandpiper</t>
+          <t>a photo of faces easy</t>
         </is>
       </c>
     </row>
     <row r="2112">
       <c r="A2112" t="inlineStr">
         <is>
-          <t>envelope</t>
+          <t>red-backed sandpiper</t>
         </is>
       </c>
       <c r="B2112" t="inlineStr">
         <is>
-          <t>a photo of envelope</t>
+          <t>a photo of red-backed sandpiper</t>
         </is>
       </c>
     </row>
     <row r="2113">
       <c r="A2113" t="inlineStr">
         <is>
-          <t>pool table</t>
+          <t>envelope</t>
         </is>
       </c>
       <c r="B2113" t="inlineStr">
         <is>
-          <t>a photo of pool table</t>
+          <t>a photo of envelope</t>
         </is>
       </c>
     </row>
     <row r="2114">
       <c r="A2114" t="inlineStr">
         <is>
-          <t>theater curtain</t>
+          <t>pool table</t>
         </is>
       </c>
       <c r="B2114" t="inlineStr">
         <is>
-          <t>a photo of theater curtain</t>
+          <t>a photo of pool table</t>
         </is>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="inlineStr">
         <is>
-          <t>balloon</t>
+          <t>theater curtain</t>
         </is>
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>a photo of balloon</t>
+          <t>a photo of theater curtain</t>
         </is>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" t="inlineStr">
         <is>
-          <t>mushroom</t>
+          <t>balloon</t>
         </is>
       </c>
       <c r="B2116" t="inlineStr">
         <is>
-          <t>a photo of mushroom</t>
+          <t>a photo of balloon</t>
         </is>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" t="inlineStr">
         <is>
-          <t>pineapple</t>
+          <t>mushroom</t>
         </is>
       </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t>a photo of pineapple</t>
+          <t>a photo of mushroom</t>
         </is>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>pineapple</t>
         </is>
       </c>
       <c r="B2118" t="inlineStr">
         <is>
-          <t>a photo of sheep</t>
+          <t>a photo of pineapple</t>
         </is>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" t="inlineStr">
         <is>
-          <t>chainlink fence</t>
+          <t>sheep</t>
         </is>
       </c>
       <c r="B2119" t="inlineStr">
         <is>
-          <t>a photo of chainlink fence</t>
+          <t>a photo of sheep</t>
         </is>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="inlineStr">
         <is>
-          <t>cardoon</t>
+          <t>chainlink fence</t>
         </is>
       </c>
       <c r="B2120" t="inlineStr">
         <is>
-          <t>a photo of cardoon</t>
+          <t>a photo of chainlink fence</t>
         </is>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="inlineStr">
         <is>
-          <t>shoe shop</t>
+          <t>cardoon</t>
         </is>
       </c>
       <c r="B2121" t="inlineStr">
         <is>
-          <t>a photo of shoe shop</t>
+          <t>a photo of cardoon</t>
         </is>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="inlineStr">
         <is>
-          <t>common newt</t>
+          <t>shoe shop</t>
         </is>
       </c>
       <c r="B2122" t="inlineStr">
         <is>
-          <t>a photo of common newt</t>
+          <t>a photo of shoe shop</t>
         </is>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>tractor</t>
+          <t>common newt</t>
         </is>
       </c>
       <c r="B2123" t="inlineStr">
         <is>
-          <t>a photo of tractor</t>
+          <t>a photo of common newt</t>
         </is>
       </c>
     </row>
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>butcher shop</t>
+          <t>tractor</t>
         </is>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>a photo of butcher shop</t>
+          <t>a photo of tractor</t>
         </is>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="inlineStr">
         <is>
-          <t>hard disc</t>
+          <t>butcher shop</t>
         </is>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>a photo of hard disc</t>
+          <t>a photo of butcher shop</t>
         </is>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="inlineStr">
         <is>
-          <t>french loaf</t>
+          <t>hard disc</t>
         </is>
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>a photo of french loaf</t>
+          <t>a photo of hard disc</t>
         </is>
       </c>
     </row>
     <row r="2127">
       <c r="A2127" t="inlineStr">
         <is>
-          <t>geyser</t>
+          <t>french loaf</t>
         </is>
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>a photo of geyser</t>
+          <t>a photo of french loaf</t>
         </is>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>killer whale</t>
+          <t>geyser</t>
         </is>
       </c>
       <c r="B2128" t="inlineStr">
         <is>
-          <t>a photo of killer whale</t>
+          <t>a photo of geyser</t>
         </is>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>remote control</t>
+          <t>killer whale</t>
         </is>
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>a photo of remote control</t>
+          <t>a photo of killer whale</t>
         </is>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>lesser panda</t>
+          <t>remote control</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>a photo of lesser panda</t>
+          <t>a photo of remote control</t>
         </is>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>beacon</t>
+          <t>lesser panda</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>a photo of beacon</t>
+          <t>a photo of lesser panda</t>
         </is>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>bench</t>
+          <t>beacon</t>
         </is>
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>a photo of bench</t>
+          <t>a photo of beacon</t>
         </is>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>military uniform</t>
+          <t>bench</t>
         </is>
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>a photo of military uniform</t>
+          <t>a photo of bench</t>
         </is>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>fire screen</t>
+          <t>military uniform</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>a photo of fire screen</t>
+          <t>a photo of military uniform</t>
         </is>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>white wolf</t>
+          <t>fire screen</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>a photo of white wolf</t>
+          <t>a photo of fire screen</t>
         </is>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>bicycle-built-for-two</t>
+          <t>white wolf</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>a photo of bicycle-built-for-two</t>
+          <t>a photo of white wolf</t>
         </is>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>golf ball</t>
+          <t>bicycle-built-for-two</t>
         </is>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>a photo of golf ball</t>
+          <t>a photo of bicycle-built-for-two</t>
         </is>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>iron</t>
+          <t>golf ball</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>a photo of iron</t>
+          <t>a photo of golf ball</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>tank</t>
+          <t>iron</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>a photo of tank</t>
+          <t>a photo of iron</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>ruffed grouse</t>
+          <t>tank</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>a photo of ruffed grouse</t>
+          <t>a photo of tank</t>
         </is>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>cauliflower</t>
+          <t>ruffed grouse</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>a photo of cauliflower</t>
+          <t>a photo of ruffed grouse</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>motorbike</t>
+          <t>cauliflower</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>a photo of motorbike</t>
+          <t>a photo of cauliflower</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>motorbike</t>
         </is>
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>a photo of crate</t>
+          <t>a photo of motorbike</t>
         </is>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>space bar</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>a photo of space bar</t>
+          <t>a photo of crate</t>
         </is>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>maze</t>
+          <t>space bar</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>a photo of maze</t>
+          <t>a photo of space bar</t>
         </is>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>barn spider</t>
+          <t>maze</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>a photo of barn spider</t>
+          <t>a photo of maze</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>patas</t>
+          <t>barn spider</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>a photo of patas</t>
+          <t>a photo of barn spider</t>
         </is>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>junco</t>
+          <t>patas</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>a photo of junco</t>
+          <t>a photo of patas</t>
         </is>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>chain saw</t>
+          <t>junco</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>a photo of chain saw</t>
+          <t>a photo of junco</t>
         </is>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>reflex camera</t>
+          <t>chain saw</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>a photo of reflex camera</t>
+          <t>a photo of chain saw</t>
         </is>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>groenendael</t>
+          <t>reflex camera</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>a photo of groenendael</t>
+          <t>a photo of reflex camera</t>
         </is>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>snowboard</t>
+          <t>groenendael</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>a photo of snowboard</t>
+          <t>a photo of groenendael</t>
         </is>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>beagle</t>
+          <t>snowboard</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>a photo of beagle</t>
+          <t>a photo of snowboard</t>
         </is>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="inlineStr">
         <is>
-          <t>miniature poodle</t>
+          <t>beagle</t>
         </is>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>a photo of miniature poodle</t>
+          <t>a photo of beagle</t>
         </is>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>vacuum</t>
+          <t>miniature poodle</t>
         </is>
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>a photo of vacuum</t>
+          <t>a photo of miniature poodle</t>
         </is>
       </c>
     </row>
     <row r="2156">
       <c r="A2156" t="inlineStr">
         <is>
-          <t>flatworm</t>
+          <t>vacuum</t>
         </is>
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>a photo of flatworm</t>
+          <t>a photo of vacuum</t>
         </is>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="inlineStr">
         <is>
-          <t>crossword puzzle</t>
+          <t>flatworm</t>
         </is>
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>a photo of crossword puzzle</t>
+          <t>a photo of flatworm</t>
         </is>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="inlineStr">
         <is>
-          <t>mashed potato</t>
+          <t>crossword puzzle</t>
         </is>
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>a photo of mashed potato</t>
+          <t>a photo of crossword puzzle</t>
         </is>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="inlineStr">
         <is>
-          <t>sturgeon</t>
+          <t>mashed potato</t>
         </is>
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>a photo of sturgeon</t>
+          <t>a photo of mashed potato</t>
         </is>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="inlineStr">
         <is>
-          <t>hand-held computer</t>
+          <t>sturgeon</t>
         </is>
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>a photo of hand-held computer</t>
+          <t>a photo of sturgeon</t>
         </is>
       </c>
     </row>
     <row r="2161">
       <c r="A2161" t="inlineStr">
         <is>
-          <t>american black bear</t>
+          <t>hand-held computer</t>
         </is>
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>a photo of american black bear</t>
+          <t>a photo of hand-held computer</t>
         </is>
       </c>
     </row>
     <row r="2162">
       <c r="A2162" t="inlineStr">
         <is>
-          <t>jean</t>
+          <t>american black bear</t>
         </is>
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>a photo of jean</t>
+          <t>a photo of american black bear</t>
         </is>
       </c>
     </row>
     <row r="2163">
       <c r="A2163" t="inlineStr">
         <is>
-          <t>lens cap</t>
+          <t>jean</t>
         </is>
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>a photo of lens cap</t>
+          <t>a photo of jean</t>
         </is>
       </c>
     </row>
     <row r="2164">
       <c r="A2164" t="inlineStr">
         <is>
-          <t>siberian husky</t>
+          <t>lens cap</t>
         </is>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>a photo of siberian husky</t>
+          <t>a photo of lens cap</t>
         </is>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>sewing machine</t>
+          <t>siberian husky</t>
         </is>
       </c>
       <c r="B2165" t="inlineStr">
         <is>
-          <t>a photo of sewing machine</t>
+          <t>a photo of siberian husky</t>
         </is>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="inlineStr">
         <is>
-          <t>otter</t>
+          <t>sewing machine</t>
         </is>
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>a photo of otter</t>
+          <t>a photo of sewing machine</t>
         </is>
       </c>
     </row>
     <row r="2167">
       <c r="A2167" t="inlineStr">
         <is>
-          <t>axolotl</t>
+          <t>otter</t>
         </is>
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>a photo of axolotl</t>
+          <t>a photo of otter</t>
         </is>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="inlineStr">
         <is>
-          <t>vending machine</t>
+          <t>axolotl</t>
         </is>
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>a photo of vending machine</t>
+          <t>a photo of axolotl</t>
         </is>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="inlineStr">
         <is>
-          <t>yurt</t>
+          <t>vending machine</t>
         </is>
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>a photo of yurt</t>
+          <t>a photo of vending machine</t>
         </is>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="inlineStr">
         <is>
-          <t>cup</t>
+          <t>yurt</t>
         </is>
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>a photo of cup</t>
+          <t>a photo of yurt</t>
         </is>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" t="inlineStr">
         <is>
-          <t>ringlet</t>
+          <t>cup</t>
         </is>
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>a photo of ringlet</t>
+          <t>a photo of cup</t>
         </is>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>aircraft carrier</t>
+          <t>ringlet</t>
         </is>
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>a photo of aircraft carrier</t>
+          <t>a photo of ringlet</t>
         </is>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>garden spider</t>
+          <t>aircraft carrier</t>
         </is>
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>a photo of garden spider</t>
+          <t>a photo of aircraft carrier</t>
         </is>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>barbell</t>
+          <t>garden spider</t>
         </is>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>a photo of barbell</t>
+          <t>a photo of garden spider</t>
         </is>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>handbag</t>
+          <t>barbell</t>
         </is>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>a photo of handbag</t>
+          <t>a photo of barbell</t>
         </is>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>miniature pinscher</t>
+          <t>handbag</t>
         </is>
       </c>
       <c r="B2176" t="inlineStr">
         <is>
-          <t>a photo of miniature pinscher</t>
+          <t>a photo of handbag</t>
         </is>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
-          <t>hen</t>
+          <t>miniature pinscher</t>
         </is>
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t>a photo of hen</t>
+          <t>a photo of miniature pinscher</t>
         </is>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>hen</t>
         </is>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>a photo of boat</t>
+          <t>a photo of hen</t>
         </is>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>frying pan</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="B2179" t="inlineStr">
         <is>
-          <t>a photo of frying pan</t>
+          <t>a photo of boat</t>
         </is>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" t="inlineStr">
         <is>
-          <t>surfboard</t>
+          <t>frying pan</t>
         </is>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>a photo of surfboard</t>
+          <t>a photo of frying pan</t>
         </is>
       </c>
     </row>
     <row r="2181">
       <c r="A2181" t="inlineStr">
         <is>
-          <t>hognose snake</t>
+          <t>surfboard</t>
         </is>
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>a photo of hognose snake</t>
+          <t>a photo of surfboard</t>
         </is>
       </c>
     </row>
     <row r="2182">
       <c r="A2182" t="inlineStr">
         <is>
-          <t>pencil box</t>
+          <t>hognose snake</t>
         </is>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>a photo of pencil box</t>
+          <t>a photo of hognose snake</t>
         </is>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="inlineStr">
         <is>
-          <t>pirate</t>
+          <t>pencil box</t>
         </is>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
-          <t>a photo of pirate</t>
+          <t>a photo of pencil box</t>
         </is>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="inlineStr">
         <is>
-          <t>butterfly</t>
+          <t>pirate</t>
         </is>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>a photo of butterfly</t>
+          <t>a photo of pirate</t>
         </is>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="inlineStr">
         <is>
-          <t>stop sign</t>
+          <t>butterfly</t>
         </is>
       </c>
       <c r="B2185" t="inlineStr">
         <is>
-          <t>a photo of stop sign</t>
+          <t>a photo of butterfly</t>
         </is>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="inlineStr">
         <is>
-          <t>ferry</t>
+          <t>stop sign</t>
         </is>
       </c>
       <c r="B2186" t="inlineStr">
         <is>
-          <t>a photo of ferry</t>
+          <t>a photo of stop sign</t>
         </is>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="inlineStr">
         <is>
-          <t>basenji</t>
+          <t>ferry</t>
         </is>
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>a photo of basenji</t>
+          <t>a photo of ferry</t>
         </is>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="inlineStr">
         <is>
-          <t>irish terrier</t>
+          <t>basenji</t>
         </is>
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>a photo of irish terrier</t>
+          <t>a photo of basenji</t>
         </is>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="inlineStr">
         <is>
-          <t>schipperke</t>
+          <t>irish terrier</t>
         </is>
       </c>
       <c r="B2189" t="inlineStr">
         <is>
-          <t>a photo of schipperke</t>
+          <t>a photo of irish terrier</t>
         </is>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="inlineStr">
         <is>
-          <t>titi</t>
+          <t>schipperke</t>
         </is>
       </c>
       <c r="B2190" t="inlineStr">
         <is>
-          <t>a photo of titi</t>
+          <t>a photo of schipperke</t>
         </is>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="inlineStr">
         <is>
-          <t>suit</t>
+          <t>titi</t>
         </is>
       </c>
       <c r="B2191" t="inlineStr">
         <is>
-          <t>a photo of suit</t>
+          <t>a photo of titi</t>
         </is>
       </c>
     </row>
     <row r="2192">
       <c r="A2192" t="inlineStr">
         <is>
-          <t>gyromitra</t>
+          <t>suit</t>
         </is>
       </c>
       <c r="B2192" t="inlineStr">
         <is>
-          <t>a photo of gyromitra</t>
+          <t>a photo of suit</t>
         </is>
       </c>
     </row>
     <row r="2193">
       <c r="A2193" t="inlineStr">
         <is>
-          <t>american chameleon</t>
+          <t>gyromitra</t>
         </is>
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>a photo of american chameleon</t>
+          <t>a photo of gyromitra</t>
         </is>
       </c>
     </row>
     <row r="2194">
       <c r="A2194" t="inlineStr">
         <is>
-          <t>mongoose</t>
+          <t>american chameleon</t>
         </is>
       </c>
       <c r="B2194" t="inlineStr">
         <is>
-          <t>a photo of mongoose</t>
+          <t>a photo of american chameleon</t>
         </is>
       </c>
     </row>
     <row r="2195">
       <c r="A2195" t="inlineStr">
         <is>
-          <t>monarch</t>
+          <t>mongoose</t>
         </is>
       </c>
       <c r="B2195" t="inlineStr">
         <is>
-          <t>a photo of monarch</t>
+          <t>a photo of mongoose</t>
         </is>
       </c>
     </row>
     <row r="2196">
       <c r="A2196" t="inlineStr">
         <is>
-          <t>picket fence</t>
+          <t>monarch</t>
         </is>
       </c>
       <c r="B2196" t="inlineStr">
         <is>
-          <t>a photo of picket fence</t>
+          <t>a photo of monarch</t>
         </is>
       </c>
     </row>
     <row r="2197">
       <c r="A2197" t="inlineStr">
         <is>
-          <t>dough</t>
+          <t>picket fence</t>
         </is>
       </c>
       <c r="B2197" t="inlineStr">
         <is>
-          <t>a photo of dough</t>
+          <t>a photo of picket fence</t>
         </is>
       </c>
     </row>
     <row r="2198">
       <c r="A2198" t="inlineStr">
         <is>
-          <t>fig</t>
+          <t>dough</t>
         </is>
       </c>
       <c r="B2198" t="inlineStr">
         <is>
-          <t>a photo of fig</t>
+          <t>a photo of dough</t>
         </is>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" t="inlineStr">
         <is>
-          <t>rock crab</t>
+          <t>fig</t>
         </is>
       </c>
       <c r="B2199" t="inlineStr">
         <is>
-          <t>a photo of rock crab</t>
+          <t>a photo of fig</t>
         </is>
       </c>
     </row>
     <row r="2200">
       <c r="A2200" t="inlineStr">
         <is>
-          <t>liner</t>
+          <t>rock crab</t>
         </is>
       </c>
       <c r="B2200" t="inlineStr">
         <is>
-          <t>a photo of liner</t>
+          <t>a photo of rock crab</t>
         </is>
       </c>
     </row>
     <row r="2201">
       <c r="A2201" t="inlineStr">
         <is>
-          <t>overskirt</t>
+          <t>liner</t>
         </is>
       </c>
       <c r="B2201" t="inlineStr">
         <is>
-          <t>a photo of overskirt</t>
+          <t>a photo of liner</t>
         </is>
       </c>
     </row>
     <row r="2202">
       <c r="A2202" t="inlineStr">
         <is>
-          <t>flamingo head</t>
+          <t>overskirt</t>
         </is>
       </c>
       <c r="B2202" t="inlineStr">
         <is>
-          <t>a photo of flamingo head</t>
+          <t>a photo of overskirt</t>
         </is>
       </c>
     </row>
     <row r="2203">
       <c r="A2203" t="inlineStr">
         <is>
-          <t>wood rabbit</t>
+          <t>flamingo head</t>
         </is>
       </c>
       <c r="B2203" t="inlineStr">
         <is>
-          <t>a photo of wood rabbit</t>
+          <t>a photo of flamingo head</t>
         </is>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="inlineStr">
         <is>
-          <t>sea snake</t>
+          <t>wood rabbit</t>
         </is>
       </c>
       <c r="B2204" t="inlineStr">
         <is>
-          <t>a photo of sea snake</t>
+          <t>a photo of wood rabbit</t>
         </is>
       </c>
     </row>
     <row r="2205">
       <c r="A2205" t="inlineStr">
         <is>
-          <t>tricycle</t>
+          <t>sea snake</t>
         </is>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
-          <t>a photo of tricycle</t>
+          <t>a photo of sea snake</t>
         </is>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>sliding door</t>
+          <t>tricycle</t>
         </is>
       </c>
       <c r="B2206" t="inlineStr">
         <is>
-          <t>a photo of sliding door</t>
+          <t>a photo of tricycle</t>
         </is>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>agama</t>
+          <t>sliding door</t>
         </is>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>a photo of agama</t>
+          <t>a photo of sliding door</t>
         </is>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>dollar bill</t>
+          <t>agama</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>a photo of dollar bill</t>
+          <t>a photo of agama</t>
         </is>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>coffeepot</t>
+          <t>dollar bill</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>a photo of coffeepot</t>
+          <t>a photo of dollar bill</t>
         </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>jersey</t>
+          <t>coffeepot</t>
         </is>
       </c>
       <c r="B2210" t="inlineStr">
         <is>
-          <t>a photo of jersey</t>
+          <t>a photo of coffeepot</t>
         </is>
       </c>
     </row>
     <row r="2211">
       <c r="A2211" t="inlineStr">
         <is>
-          <t>window shade</t>
+          <t>jersey</t>
         </is>
       </c>
       <c r="B2211" t="inlineStr">
         <is>
-          <t>a photo of window shade</t>
+          <t>a photo of jersey</t>
         </is>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>panpipe</t>
+          <t>window shade</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>a photo of panpipe</t>
+          <t>a photo of window shade</t>
         </is>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>parking meter</t>
+          <t>panpipe</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>a photo of parking meter</t>
+          <t>a photo of panpipe</t>
         </is>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>vase</t>
+          <t>parking meter</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>a photo of vase</t>
+          <t>a photo of parking meter</t>
         </is>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>remote</t>
+          <t>vase</t>
         </is>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>a photo of remote</t>
+          <t>a photo of vase</t>
         </is>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>cradle</t>
+          <t>remote</t>
         </is>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>a photo of cradle</t>
+          <t>a photo of remote</t>
         </is>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>yin yang</t>
+          <t>cradle</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>a photo of yin yang</t>
+          <t>a photo of cradle</t>
         </is>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>giant panda</t>
+          <t>yin yang</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>a photo of giant panda</t>
+          <t>a photo of yin yang</t>
         </is>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>elephant</t>
+          <t>giant panda</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
         <is>
-          <t>a photo of elephant</t>
+          <t>a photo of giant panda</t>
         </is>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>tow truck</t>
+          <t>elephant</t>
         </is>
       </c>
       <c r="B2220" t="inlineStr">
         <is>
-          <t>a photo of tow truck</t>
+          <t>a photo of elephant</t>
         </is>
       </c>
     </row>
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>football helmet</t>
+          <t>tow truck</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
         <is>
-          <t>a photo of football helmet</t>
+          <t>a photo of tow truck</t>
         </is>
       </c>
     </row>
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>wild cat</t>
+          <t>football helmet</t>
         </is>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>a photo of wild cat</t>
+          <t>a photo of football helmet</t>
         </is>
       </c>
     </row>
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>tailed frog</t>
+          <t>wild cat</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>a photo of tailed frog</t>
+          <t>a photo of wild cat</t>
         </is>
       </c>
     </row>
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>electric ray</t>
+          <t>tailed frog</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>a photo of electric ray</t>
+          <t>a photo of tailed frog</t>
         </is>
       </c>
     </row>
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>mandolin</t>
+          <t>electric ray</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>a photo of mandolin</t>
+          <t>a photo of electric ray</t>
         </is>
       </c>
     </row>
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>kit fox</t>
+          <t>mandolin</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>a photo of kit fox</t>
+          <t>a photo of mandolin</t>
         </is>
       </c>
     </row>
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>lacewing</t>
+          <t>kit fox</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>a photo of lacewing</t>
+          <t>a photo of kit fox</t>
         </is>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>slide rule</t>
+          <t>lacewing</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>a photo of slide rule</t>
+          <t>a photo of lacewing</t>
         </is>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>okapi</t>
+          <t>slide rule</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>a photo of okapi</t>
+          <t>a photo of slide rule</t>
         </is>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>ship</t>
+          <t>okapi</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>a photo of ship</t>
+          <t>a photo of okapi</t>
         </is>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>walking stick</t>
+          <t>ship</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>a photo of walking stick</t>
+          <t>a photo of ship</t>
         </is>
       </c>
     </row>
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>walking stick</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>a photo of train</t>
+          <t>a photo of walking stick</t>
         </is>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>hare</t>
+          <t>train</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>a photo of hare</t>
+          <t>a photo of train</t>
         </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>half track</t>
+          <t>hare</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>a photo of half track</t>
+          <t>a photo of hare</t>
         </is>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>stinkhorn</t>
+          <t>half track</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
         <is>
-          <t>a photo of stinkhorn</t>
+          <t>a photo of half track</t>
         </is>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>hornbill</t>
+          <t>stinkhorn</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
         <is>
-          <t>a photo of hornbill</t>
+          <t>a photo of stinkhorn</t>
         </is>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>bakery</t>
+          <t>hornbill</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>a photo of bakery</t>
+          <t>a photo of hornbill</t>
         </is>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>cellphone</t>
+          <t>bakery</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
         <is>
-          <t>a photo of cellphone</t>
+          <t>a photo of bakery</t>
         </is>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>ground beetle</t>
+          <t>cellphone</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>a photo of ground beetle</t>
+          <t>a photo of cellphone</t>
         </is>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>ballplayer</t>
+          <t>ground beetle</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
         <is>
-          <t>a photo of ballplayer</t>
+          <t>a photo of ground beetle</t>
         </is>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>carrot</t>
+          <t>ballplayer</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>a photo of carrot</t>
+          <t>a photo of ballplayer</t>
         </is>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>helicopter</t>
+          <t>carrot</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>a photo of helicopter</t>
+          <t>a photo of carrot</t>
         </is>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>trimaran</t>
+          <t>helicopter</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>a photo of trimaran</t>
+          <t>a photo of helicopter</t>
         </is>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>beaker</t>
+          <t>trimaran</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>a photo of beaker</t>
+          <t>a photo of trimaran</t>
         </is>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>screwdriver</t>
+          <t>beaker</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>a photo of screwdriver</t>
+          <t>a photo of beaker</t>
         </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>scorpion</t>
+          <t>screwdriver</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>a photo of scorpion</t>
+          <t>a photo of screwdriver</t>
         </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>dock</t>
+          <t>scorpion</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>a photo of dock</t>
+          <t>a photo of scorpion</t>
         </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>miniature schnauzer</t>
+          <t>dock</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>a photo of miniature schnauzer</t>
+          <t>a photo of dock</t>
         </is>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>vault</t>
+          <t>miniature schnauzer</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>a photo of vault</t>
+          <t>a photo of miniature schnauzer</t>
         </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>racket</t>
+          <t>vault</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>a photo of racket</t>
+          <t>a photo of vault</t>
         </is>
       </c>
     </row>
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>pekinese</t>
+          <t>racket</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>a photo of pekinese</t>
+          <t>a photo of racket</t>
         </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>grey fox</t>
+          <t>pekinese</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>a photo of grey fox</t>
+          <t>a photo of pekinese</t>
         </is>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>bib</t>
+          <t>grey fox</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>a photo of bib</t>
+          <t>a photo of grey fox</t>
         </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>cloak</t>
+          <t>bib</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>a photo of cloak</t>
+          <t>a photo of bib</t>
         </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>stupa</t>
+          <t>cloak</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>a photo of stupa</t>
+          <t>a photo of cloak</t>
         </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>fountain pen</t>
+          <t>stupa</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>a photo of fountain pen</t>
+          <t>a photo of stupa</t>
         </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>wardrobe</t>
+          <t>fountain pen</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>a photo of wardrobe</t>
+          <t>a photo of fountain pen</t>
         </is>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>police van</t>
+          <t>wardrobe</t>
         </is>
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>a photo of police van</t>
+          <t>a photo of wardrobe</t>
         </is>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>stone wall</t>
+          <t>police van</t>
         </is>
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>a photo of stone wall</t>
+          <t>a photo of police van</t>
         </is>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>totem pole</t>
+          <t>stone wall</t>
         </is>
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>a photo of totem pole</t>
+          <t>a photo of stone wall</t>
         </is>
       </c>
     </row>
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>nail</t>
+          <t>totem pole</t>
         </is>
       </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>a photo of nail</t>
+          <t>a photo of totem pole</t>
         </is>
       </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>badger</t>
+          <t>nail</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>a photo of badger</t>
+          <t>a photo of nail</t>
         </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>trifle</t>
+          <t>badger</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>a photo of trifle</t>
+          <t>a photo of badger</t>
         </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>pop bottle</t>
+          <t>trifle</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>a photo of pop bottle</t>
+          <t>a photo of trifle</t>
         </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>wall clock</t>
+          <t>pop bottle</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>a photo of wall clock</t>
+          <t>a photo of pop bottle</t>
         </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>welsh springer spaniel</t>
+          <t>wall clock</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>a photo of welsh springer spaniel</t>
+          <t>a photo of wall clock</t>
         </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>jaguar</t>
+          <t>welsh springer spaniel</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>a photo of jaguar</t>
+          <t>a photo of welsh springer spaniel</t>
         </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>lakeside</t>
+          <t>jaguar</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>a photo of lakeside</t>
+          <t>a photo of jaguar</t>
         </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>barbershop</t>
+          <t>lakeside</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>a photo of barbershop</t>
+          <t>a photo of lakeside</t>
         </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>cucumber</t>
+          <t>barbershop</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>a photo of cucumber</t>
+          <t>a photo of barbershop</t>
         </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>cucumber</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>a photo of monitor</t>
+          <t>a photo of cucumber</t>
         </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>cougar body</t>
+          <t>monitor</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>a photo of cougar body</t>
+          <t>a photo of monitor</t>
         </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>garfield</t>
+          <t>cougar body</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>a photo of garfield</t>
+          <t>a photo of cougar body</t>
         </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>swing</t>
+          <t>garfield</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>a photo of swing</t>
+          <t>a photo of garfield</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>red-breasted merganser</t>
+          <t>swing</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>a photo of red-breasted merganser</t>
+          <t>a photo of swing</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>metronome</t>
+          <t>red-breasted merganser</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>a photo of metronome</t>
+          <t>a photo of red-breasted merganser</t>
         </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>scotch terrier</t>
+          <t>metronome</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>a photo of scotch terrier</t>
+          <t>a photo of metronome</t>
         </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>bookcase</t>
+          <t>scotch terrier</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>a photo of bookcase</t>
+          <t>a photo of scotch terrier</t>
         </is>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>leonberg</t>
+          <t>bookcase</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>a photo of leonberg</t>
+          <t>a photo of bookcase</t>
         </is>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>radio telescope</t>
+          <t>leonberg</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>a photo of radio telescope</t>
+          <t>a photo of leonberg</t>
         </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>tennis ball</t>
+          <t>radio telescope</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>a photo of tennis ball</t>
+          <t>a photo of radio telescope</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>schooner</t>
+          <t>tennis ball</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>a photo of schooner</t>
+          <t>a photo of tennis ball</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>racer</t>
+          <t>schooner</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>a photo of racer</t>
+          <t>a photo of schooner</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>warplane</t>
+          <t>racer</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>a photo of warplane</t>
+          <t>a photo of racer</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>macaw</t>
+          <t>warplane</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>a photo of macaw</t>
+          <t>a photo of warplane</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>bow</t>
+          <t>macaw</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>a photo of bow</t>
+          <t>a photo of macaw</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>polecat</t>
+          <t>bow</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>a photo of polecat</t>
+          <t>a photo of bow</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>windsor tie</t>
+          <t>polecat</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>a photo of windsor tie</t>
+          <t>a photo of polecat</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>windsor tie</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>a photo of church</t>
+          <t>a photo of windsor tie</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>broccoli</t>
+          <t>church</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>a photo of broccoli</t>
+          <t>a photo of church</t>
         </is>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>ant</t>
+          <t>broccoli</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>a photo of ant</t>
+          <t>a photo of broccoli</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>umbrella</t>
+          <t>ant</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>a photo of umbrella</t>
+          <t>a photo of ant</t>
         </is>
       </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>king crab</t>
+          <t>umbrella</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>a photo of king crab</t>
+          <t>a photo of umbrella</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>silky terrier</t>
+          <t>king crab</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>a photo of silky terrier</t>
+          <t>a photo of king crab</t>
         </is>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>night snake</t>
+          <t>silky terrier</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>a photo of night snake</t>
+          <t>a photo of silky terrier</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>black-footed ferret</t>
+          <t>night snake</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>a photo of black-footed ferret</t>
+          <t>a photo of night snake</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>pay-phone</t>
+          <t>black-footed ferret</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>a photo of pay-phone</t>
+          <t>a photo of black-footed ferret</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>Faces easy</t>
+          <t>pay-phone</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>a photo of Faces easy</t>
+          <t>a photo of pay-phone</t>
         </is>
       </c>
     </row>

--- a/classes.xlsx
+++ b/classes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2770"/>
+  <dimension ref="A1:B2769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33661,14 +33661,6 @@
         </is>
       </c>
     </row>
-    <row r="2770">
-      <c r="A2770" t="inlineStr"/>
-      <c r="B2770" t="inlineStr">
-        <is>
-          <t xml:space="preserve">a photo of the food </t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/classes.xlsx
+++ b/classes.xlsx
@@ -29793,7 +29793,7 @@
       </c>
       <c r="B2447" t="inlineStr">
         <is>
-          <t>a photo of potter's wheel</t>
+          <t>a photo of potter's wheel, that is used in shaping of clay</t>
         </is>
       </c>
     </row>
